--- a/data/outputs/数学期刊(下)_altmetric/58Mathematische Zeitschrift.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/58Mathematische Zeitschrift.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE171"/>
+  <dimension ref="A1:CF171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1023,6 +1028,9 @@
         <v>0</v>
       </c>
       <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1256,6 +1264,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1515,6 +1526,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1775,6 +1789,9 @@
       </c>
       <c r="CE5" t="n">
         <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -2011,6 +2028,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2270,6 +2290,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2525,6 +2548,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2776,6 +2802,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3029,6 +3058,9 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3270,6 +3302,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3527,6 +3562,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3778,6 +3816,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4039,6 +4080,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4290,6 +4334,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4539,6 +4586,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4784,6 +4834,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5031,6 +5084,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5278,6 +5334,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5527,6 +5586,9 @@
         <v>0</v>
       </c>
       <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5776,6 +5838,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6029,6 +6094,9 @@
         <v>0</v>
       </c>
       <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6270,6 +6338,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6521,6 +6592,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6770,6 +6844,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7031,6 +7108,9 @@
         <v>0</v>
       </c>
       <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7284,6 +7364,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7545,6 +7628,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7794,6 +7880,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8050,6 +8139,9 @@
       </c>
       <c r="CE30" t="n">
         <v>0</v>
+      </c>
+      <c r="CF30" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="31">
@@ -8295,6 +8387,9 @@
       </c>
       <c r="CE31" t="n">
         <v>0</v>
+      </c>
+      <c r="CF31" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
@@ -8539,6 +8634,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8790,6 +8888,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9045,6 +9146,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9300,6 +9404,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9552,6 +9659,9 @@
       </c>
       <c r="CE36" t="n">
         <v>0</v>
+      </c>
+      <c r="CF36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -9792,6 +9902,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10035,6 +10148,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10292,6 +10408,9 @@
         <v>0</v>
       </c>
       <c r="CE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10537,6 +10656,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10792,6 +10914,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11041,6 +11166,9 @@
         <v>0</v>
       </c>
       <c r="CE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11288,6 +11416,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11539,6 +11670,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11794,6 +11928,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12051,6 +12188,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12299,6 +12439,9 @@
       </c>
       <c r="CE47" t="n">
         <v>0</v>
+      </c>
+      <c r="CF47" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="48">
@@ -12545,6 +12688,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12788,6 +12934,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13040,6 +13189,9 @@
       </c>
       <c r="CE50" t="n">
         <v>0</v>
+      </c>
+      <c r="CF50" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="51">
@@ -13290,6 +13442,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13529,6 +13684,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13776,6 +13934,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14035,6 +14196,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14286,6 +14450,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14535,6 +14702,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14788,6 +14958,9 @@
         <v>0</v>
       </c>
       <c r="CE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15033,6 +15206,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15284,6 +15460,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15533,6 +15712,9 @@
         <v>0</v>
       </c>
       <c r="CE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15784,6 +15966,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16035,6 +16220,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16284,6 +16472,9 @@
         <v>0</v>
       </c>
       <c r="CE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16533,6 +16724,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16782,6 +16976,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17029,6 +17226,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17284,6 +17484,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17548,6 +17751,9 @@
       </c>
       <c r="CE68" t="n">
         <v>0</v>
+      </c>
+      <c r="CF68" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="69">
@@ -17784,6 +17990,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18025,6 +18234,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18264,6 +18476,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18505,6 +18720,9 @@
       <c r="CE72" t="n">
         <v>1</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18748,6 +18966,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19003,6 +19224,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19254,6 +19478,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19505,6 +19732,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19766,6 +19996,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -20022,6 +20255,9 @@
       </c>
       <c r="CE78" t="n">
         <v>0</v>
+      </c>
+      <c r="CF78" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="79">
@@ -20270,6 +20506,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20523,6 +20762,9 @@
         <v>0</v>
       </c>
       <c r="CE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20770,6 +21012,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -21009,6 +21254,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21260,6 +21508,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21509,6 +21760,9 @@
         <v>0</v>
       </c>
       <c r="CE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21758,6 +22012,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -22009,6 +22266,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22258,6 +22518,9 @@
         <v>0</v>
       </c>
       <c r="CE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22507,6 +22770,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22758,6 +23024,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -23017,6 +23286,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23270,6 +23542,9 @@
         <v>0</v>
       </c>
       <c r="CE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23521,6 +23796,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23772,6 +24050,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -24029,6 +24310,9 @@
         <v>0</v>
       </c>
       <c r="CE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24274,6 +24558,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24525,6 +24812,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24770,6 +25060,9 @@
         <v>0</v>
       </c>
       <c r="CE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25029,6 +25322,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25278,6 +25574,9 @@
         <v>0</v>
       </c>
       <c r="CE99" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25527,6 +25826,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25774,6 +26076,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -26026,6 +26331,9 @@
       </c>
       <c r="CE102" t="n">
         <v>0</v>
+      </c>
+      <c r="CF102" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="103">
@@ -26262,6 +26570,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26509,6 +26820,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26758,6 +27072,9 @@
         <v>0</v>
       </c>
       <c r="CE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27011,6 +27328,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -27254,6 +27574,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27503,6 +27826,9 @@
         <v>0</v>
       </c>
       <c r="CE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27762,6 +28088,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -28013,6 +28342,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -28266,6 +28598,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -28517,6 +28852,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28768,6 +29106,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -29025,6 +29366,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29272,6 +29616,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -29521,6 +29868,9 @@
         <v>0</v>
       </c>
       <c r="CE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29766,6 +30116,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -30017,6 +30370,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -30273,6 +30629,9 @@
       </c>
       <c r="CE119" t="n">
         <v>1</v>
+      </c>
+      <c r="CF119" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="120">
@@ -30517,6 +30876,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30766,6 +31128,9 @@
         <v>0</v>
       </c>
       <c r="CE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31011,6 +31376,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -31262,6 +31630,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -31513,6 +31884,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -31758,6 +32132,9 @@
         <v>0</v>
       </c>
       <c r="CE125" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31997,6 +32374,9 @@
         <v>0</v>
       </c>
       <c r="CE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32234,6 +32614,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -32469,6 +32852,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -32712,6 +33098,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -32963,6 +33352,9 @@
       <c r="CE130" t="n">
         <v>0</v>
       </c>
+      <c r="CF130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -33220,6 +33612,9 @@
       <c r="CE131" t="n">
         <v>0</v>
       </c>
+      <c r="CF131" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -33481,6 +33876,9 @@
         <v>0</v>
       </c>
       <c r="CE132" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33718,6 +34116,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -33971,6 +34372,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -34222,6 +34626,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -34483,6 +34890,9 @@
       <c r="CE136" t="n">
         <v>0</v>
       </c>
+      <c r="CF136" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -34738,6 +35148,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -34983,6 +35396,9 @@
         <v>0</v>
       </c>
       <c r="CE138" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35238,6 +35654,9 @@
         <v>0</v>
       </c>
       <c r="CE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35467,6 +35886,9 @@
       <c r="CE140" t="n">
         <v>0</v>
       </c>
+      <c r="CF140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -35716,6 +36138,9 @@
         <v>0</v>
       </c>
       <c r="CE141" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35965,6 +36390,9 @@
       <c r="CE142" t="n">
         <v>0</v>
       </c>
+      <c r="CF142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -36216,6 +36644,9 @@
       <c r="CE143" t="n">
         <v>0</v>
       </c>
+      <c r="CF143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -36469,6 +36900,9 @@
         <v>0</v>
       </c>
       <c r="CE144" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36718,6 +37152,9 @@
       <c r="CE145" t="n">
         <v>0</v>
       </c>
+      <c r="CF145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -36957,6 +37394,9 @@
       <c r="CE146" t="n">
         <v>0</v>
       </c>
+      <c r="CF146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -37200,6 +37640,9 @@
       <c r="CE147" t="n">
         <v>0</v>
       </c>
+      <c r="CF147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -37443,6 +37886,9 @@
       <c r="CE148" t="n">
         <v>0</v>
       </c>
+      <c r="CF148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -37696,6 +38142,9 @@
       <c r="CE149" t="n">
         <v>0</v>
       </c>
+      <c r="CF149" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -37949,6 +38398,9 @@
       <c r="CE150" t="n">
         <v>0</v>
       </c>
+      <c r="CF150" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -38200,6 +38652,9 @@
       <c r="CE151" t="n">
         <v>0</v>
       </c>
+      <c r="CF151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -38451,6 +38906,9 @@
       <c r="CE152" t="n">
         <v>0</v>
       </c>
+      <c r="CF152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -38700,6 +39158,9 @@
       <c r="CE153" t="n">
         <v>0</v>
       </c>
+      <c r="CF153" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -38952,6 +39413,9 @@
       </c>
       <c r="CE154" t="n">
         <v>0</v>
+      </c>
+      <c r="CF154" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="155">
@@ -39192,6 +39656,9 @@
       <c r="CE155" t="n">
         <v>0</v>
       </c>
+      <c r="CF155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -39444,6 +39911,9 @@
       </c>
       <c r="CE156" t="n">
         <v>0</v>
+      </c>
+      <c r="CF156" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="157">
@@ -39684,6 +40154,9 @@
       <c r="CE157" t="n">
         <v>0</v>
       </c>
+      <c r="CF157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -39927,6 +40400,9 @@
       <c r="CE158" t="n">
         <v>0</v>
       </c>
+      <c r="CF158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -40170,6 +40646,9 @@
       <c r="CE159" t="n">
         <v>0</v>
       </c>
+      <c r="CF159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -40409,6 +40888,9 @@
       <c r="CE160" t="n">
         <v>0</v>
       </c>
+      <c r="CF160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -40660,6 +41142,9 @@
       <c r="CE161" t="n">
         <v>0</v>
       </c>
+      <c r="CF161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -40909,6 +41394,9 @@
         <v>0</v>
       </c>
       <c r="CE162" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41154,6 +41642,9 @@
       <c r="CE163" t="n">
         <v>0</v>
       </c>
+      <c r="CF163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -41399,6 +41890,9 @@
         <v>0</v>
       </c>
       <c r="CE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41650,6 +42144,9 @@
         <v>0</v>
       </c>
       <c r="CE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41887,6 +42384,9 @@
       <c r="CE166" t="n">
         <v>0</v>
       </c>
+      <c r="CF166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -42130,6 +42630,9 @@
       <c r="CE167" t="n">
         <v>0</v>
       </c>
+      <c r="CF167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -42382,6 +42885,9 @@
       </c>
       <c r="CE168" t="n">
         <v>0</v>
+      </c>
+      <c r="CF168" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="169">
@@ -42630,6 +43136,9 @@
       <c r="CE169" t="n">
         <v>0</v>
       </c>
+      <c r="CF169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -42865,6 +43374,9 @@
       <c r="CE170" t="n">
         <v>0</v>
       </c>
+      <c r="CF170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -43116,6 +43628,9 @@
       <c r="CE171" t="n">
         <v>0</v>
       </c>
+      <c r="CF171" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
